--- a/02 - Semestre/02 - Engenharia_II/RF-RNF.xlsx
+++ b/02 - Semestre/02 - Engenharia_II/RF-RNF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alinn\Documents\DSM\fatecvotorantim\02 - Semestre\02 - Engenharia_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B980A322-3D85-4F33-A907-A9D1D54ED840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83902662-89CE-48CE-8988-D85A42ADA586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF00DC9F-FE42-4FE2-91CE-4B01367797F7}"/>
   </bookViews>
@@ -689,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B163A981-90AC-48E4-B9CF-D8F6F60E69FE}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/02 - Semestre/02 - Engenharia_II/RF-RNF.xlsx
+++ b/02 - Semestre/02 - Engenharia_II/RF-RNF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alinn\Documents\DSM\fatecvotorantim\02 - Semestre\02 - Engenharia_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83902662-89CE-48CE-8988-D85A42ADA586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4BFE8-4754-406E-8844-8CFD9E02FA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF00DC9F-FE42-4FE2-91CE-4B01367797F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BF00DC9F-FE42-4FE2-91CE-4B01367797F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos Funcionais" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
   <si>
     <t>Nome do Requisito</t>
   </si>
@@ -257,6 +257,78 @@
   </si>
   <si>
     <t>Página dos restaurantes</t>
+  </si>
+  <si>
+    <t>Escalabilidade</t>
+  </si>
+  <si>
+    <t>O sistema deve ser capaz de lidar com 100.000 usuários simultâneos.</t>
+  </si>
+  <si>
+    <t>Navegadores</t>
+  </si>
+  <si>
+    <t>Suporte aos principais navegadores, como Chrome, Firefox, Safari e Edge.</t>
+  </si>
+  <si>
+    <t>Dispositivos</t>
+  </si>
+  <si>
+    <t>Layout responsivo para diferentes tamanhos de tela (desktop, tablet, mobile).</t>
+  </si>
+  <si>
+    <t>Interface Intuitiva</t>
+  </si>
+  <si>
+    <t>A interface do usuário deve ser fácil de usar e entender.</t>
+  </si>
+  <si>
+    <t>Facilidade de Manutenção</t>
+  </si>
+  <si>
+    <t>O sistema deve ser modular e fácil de manter.</t>
+  </si>
+  <si>
+    <t>Atualizações sem Interrupções</t>
+  </si>
+  <si>
+    <t>Atualizações do sistema devem ser feitas sem interromper o serviço.</t>
+  </si>
+  <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>Possibilidade de integração com sistemas externos via APIs.</t>
+  </si>
+  <si>
+    <t>Proteção de Dados</t>
+  </si>
+  <si>
+    <t>Cumprir regulamentações de proteção de dados, como GDPR.</t>
+  </si>
+  <si>
+    <t>Tolerância a Falhas</t>
+  </si>
+  <si>
+    <t>O sistema deve ser capaz de lidar com falhas sem afetar gravemente o serviço.</t>
+  </si>
+  <si>
+    <t>Desempenho do Banco de Dados</t>
+  </si>
+  <si>
+    <t>O banco de dados deve ser otimizado para consultas rápidas e eficientes.</t>
+  </si>
+  <si>
+    <t>Manutenção e Atualização</t>
+  </si>
+  <si>
+    <t>Garantir que o sistema seja fácil de manter e atualizar.</t>
+  </si>
+  <si>
+    <t>Controle de Acesso</t>
+  </si>
+  <si>
+    <t>Garantir que apenas usuários autorizados tenham acesso a determinadas áreas.</t>
   </si>
 </sst>
 </file>
@@ -341,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -372,6 +444,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B163A981-90AC-48E4-B9CF-D8F6F60E69FE}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,14 +1053,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E1E2F5-BFF4-40CA-8439-66AD62742243}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -987,64 +1077,172 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/02 - Semestre/02 - Engenharia_II/RF-RNF.xlsx
+++ b/02 - Semestre/02 - Engenharia_II/RF-RNF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alinn\Documents\DSM\fatecvotorantim\02 - Semestre\02 - Engenharia_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4BFE8-4754-406E-8844-8CFD9E02FA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94D843B-D829-41E3-9A95-DB5D2989F5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BF00DC9F-FE42-4FE2-91CE-4B01367797F7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>Nome do Requisito</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>Garantir que apenas usuários autorizados tenham acesso a determinadas áreas.</t>
+  </si>
+  <si>
+    <t>Tempo de Resposta</t>
+  </si>
+  <si>
+    <t>Garantir que o tempo de resposta do servidor seja inferior a 200 ms.</t>
+  </si>
+  <si>
+    <t>Cache de Páginas</t>
+  </si>
+  <si>
+    <t>Implementar estratégias eficientes de caching para melhorar o desempenho.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -445,23 +457,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B163A981-90AC-48E4-B9CF-D8F6F60E69FE}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E1E2F5-BFF4-40CA-8439-66AD62742243}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1098,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1106,7 +1112,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1120,7 +1126,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1134,125 +1140,143 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>36</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
